--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value666.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value666.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.746220119777944</v>
+        <v>1.598387956619263</v>
       </c>
       <c r="B1">
-        <v>1.93842855842603</v>
+        <v>2.387347936630249</v>
       </c>
       <c r="C1">
-        <v>1.990795200581225</v>
+        <v>2.71203088760376</v>
       </c>
       <c r="D1">
-        <v>2.582476116656997</v>
+        <v>3.152851104736328</v>
       </c>
       <c r="E1">
-        <v>3.004894572225244</v>
+        <v>1.934929013252258</v>
       </c>
     </row>
   </sheetData>
